--- a/季报汇总-2024-07-12.xlsx
+++ b/季报汇总-2024-07-12.xlsx
@@ -724,7 +724,7 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:G85"/>
+  <dimension ref="B1:G86"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -2479,7 +2479,7 @@
     <row r="63" ht="14" customHeight="1">
       <c r="B63" s="34" t="inlineStr">
         <is>
-          <t>002064.SZ</t>
+          <t>301608.SZ</t>
         </is>
       </c>
       <c r="C63" s="29">
@@ -2496,7 +2496,7 @@
       </c>
       <c r="F63" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润138000万元至168000万元;增长幅度为1.57%至23.65%,基本每股收益0.28元至0.34元;上年同期业绩:净利润135863.91万元,基本每股收益0.27元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润9500万元至10100万元;增长幅度为9.56%至16.48%;上年同期业绩:净利润8670.69万元;</t>
         </is>
       </c>
       <c r="G63" s="33">
@@ -2507,7 +2507,7 @@
     <row r="64" ht="14" customHeight="1">
       <c r="B64" s="34" t="inlineStr">
         <is>
-          <t>600172.SH</t>
+          <t>002064.SZ</t>
         </is>
       </c>
       <c r="C64" s="29">
@@ -2524,7 +2524,7 @@
       </c>
       <c r="F64" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-25000.00万元至-22000.00万元;上年同期业绩:净利润-21940.41万元,基本每股收益-0.1576元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润138000万元至168000万元;增长幅度为1.57%至23.65%,基本每股收益0.28元至0.34元;上年同期业绩:净利润135863.91万元,基本每股收益0.27元;</t>
         </is>
       </c>
       <c r="G64" s="33">
@@ -2535,7 +2535,7 @@
     <row r="65" ht="14" customHeight="1">
       <c r="B65" s="34" t="inlineStr">
         <is>
-          <t>002769.SZ</t>
+          <t>600172.SH</t>
         </is>
       </c>
       <c r="C65" s="29">
@@ -2552,7 +2552,7 @@
       </c>
       <c r="F65" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-6700万元至-3800万元,基本每股收益-0.19元至-0.10元;上年同期业绩:净利润-4561.11万元,基本每股收益-0.12元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-25000.00万元至-22000.00万元;上年同期业绩:净利润-21940.41万元,基本每股收益-0.1576元;</t>
         </is>
       </c>
       <c r="G65" s="33">
@@ -2563,7 +2563,7 @@
     <row r="66" ht="14" customHeight="1">
       <c r="B66" s="34" t="inlineStr">
         <is>
-          <t>600322.SH</t>
+          <t>002769.SZ</t>
         </is>
       </c>
       <c r="C66" s="29">
@@ -2580,7 +2580,7 @@
       </c>
       <c r="F66" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-20500.00万元至-17500.00万元;上年同期业绩:净利润-14700.00万元,基本每股收益-0.1326元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-6700万元至-3800万元,基本每股收益-0.19元至-0.10元;上年同期业绩:净利润-4561.11万元,基本每股收益-0.12元;</t>
         </is>
       </c>
       <c r="G66" s="33">
@@ -2591,7 +2591,7 @@
     <row r="67" ht="14" customHeight="1">
       <c r="B67" s="34" t="inlineStr">
         <is>
-          <t>002285.SZ</t>
+          <t>600322.SH</t>
         </is>
       </c>
       <c r="C67" s="29">
@@ -2608,7 +2608,7 @@
       </c>
       <c r="F67" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润1200.00万元至1800.00万元;下降幅度为58.63%至37.94%,基本每股收益0.0060元至0.0090元;上年同期业绩:净利润2900.38万元,基本每股收益0.01元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-20500.00万元至-17500.00万元;上年同期业绩:净利润-14700.00万元,基本每股收益-0.1326元;</t>
         </is>
       </c>
       <c r="G67" s="33">
@@ -2619,7 +2619,7 @@
     <row r="68" ht="14" customHeight="1">
       <c r="B68" s="34" t="inlineStr">
         <is>
-          <t>600569.SH</t>
+          <t>002285.SZ</t>
         </is>
       </c>
       <c r="C68" s="29">
@@ -2636,7 +2636,7 @@
       </c>
       <c r="F68" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-126000万元左右;上年同期业绩:净利润-82638.31万元,基本每股收益-0.288元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润1200.00万元至1800.00万元;下降幅度为58.63%至37.94%,基本每股收益0.0060元至0.0090元;上年同期业绩:净利润2900.38万元,基本每股收益0.01元;</t>
         </is>
       </c>
       <c r="G68" s="33">
@@ -2647,7 +2647,7 @@
     <row r="69" ht="14" customHeight="1">
       <c r="B69" s="34" t="inlineStr">
         <is>
-          <t>002560.SZ</t>
+          <t>600569.SH</t>
         </is>
       </c>
       <c r="C69" s="29">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="F69" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润3540万元至4795万元;下降幅度为60.90%至47.05%,基本每股收益0.0673元至0.0912元;上年同期业绩:净利润9054.86万元,基本每股收益0.1700元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-126000万元左右;上年同期业绩:净利润-82638.31万元,基本每股收益-0.288元;</t>
         </is>
       </c>
       <c r="G69" s="33">
@@ -2675,7 +2675,7 @@
     <row r="70" ht="14" customHeight="1">
       <c r="B70" s="34" t="inlineStr">
         <is>
-          <t>002394.SZ</t>
+          <t>002560.SZ</t>
         </is>
       </c>
       <c r="C70" s="29">
@@ -2692,7 +2692,7 @@
       </c>
       <c r="F70" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润4500万元至5600万元;下降幅度为60.37%至50.68%,基本每股收益0.139元至0.173元;上年同期业绩:净利润11354万元,基本每股收益0.3508元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润3540万元至4795万元;下降幅度为60.90%至47.05%,基本每股收益0.0673元至0.0912元;上年同期业绩:净利润9054.86万元,基本每股收益0.1700元;</t>
         </is>
       </c>
       <c r="G70" s="33">
@@ -2703,7 +2703,7 @@
     <row r="71" ht="14" customHeight="1">
       <c r="B71" s="34" t="inlineStr">
         <is>
-          <t>002198.SZ</t>
+          <t>002394.SZ</t>
         </is>
       </c>
       <c r="C71" s="29">
@@ -2720,7 +2720,7 @@
       </c>
       <c r="F71" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润460万元至580万元;下降幅度为75%至68%,基本每股收益0.0091元至0.0114元;上年同期业绩:净利润1824.85万元,基本每股收益0.0360元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润4500万元至5600万元;下降幅度为60.37%至50.68%,基本每股收益0.139元至0.173元;上年同期业绩:净利润11354万元,基本每股收益0.3508元;</t>
         </is>
       </c>
       <c r="G71" s="33">
@@ -2731,7 +2731,7 @@
     <row r="72" ht="14" customHeight="1">
       <c r="B72" s="34" t="inlineStr">
         <is>
-          <t>000993.SZ</t>
+          <t>002198.SZ</t>
         </is>
       </c>
       <c r="C72" s="29">
@@ -2748,7 +2748,7 @@
       </c>
       <c r="F72" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润4500万元至6500万元;下降幅度为81.60%至73.43%,基本每股收益0.10元至0.14元;上年同期业绩:净利润24462.26万元,基本每股收益0.53元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润460万元至580万元;下降幅度为75%至68%,基本每股收益0.0091元至0.0114元;上年同期业绩:净利润1824.85万元,基本每股收益0.0360元;</t>
         </is>
       </c>
       <c r="G72" s="33">
@@ -2759,7 +2759,7 @@
     <row r="73" ht="14" customHeight="1">
       <c r="B73" s="34" t="inlineStr">
         <is>
-          <t>000014.SZ</t>
+          <t>000993.SZ</t>
         </is>
       </c>
       <c r="C73" s="29">
@@ -2776,7 +2776,7 @@
       </c>
       <c r="F73" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润5100万元至5600万元;下降幅度为88.38%至87.25%,基本每股收益0.2107元至0.2314元;上年同期业绩:净利润43907万元,基本每股收益1.8140元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润4500万元至6500万元;下降幅度为81.60%至73.43%,基本每股收益0.10元至0.14元;上年同期业绩:净利润24462.26万元,基本每股收益0.53元;</t>
         </is>
       </c>
       <c r="G73" s="33">
@@ -2787,7 +2787,7 @@
     <row r="74" ht="14" customHeight="1">
       <c r="B74" s="34" t="inlineStr">
         <is>
-          <t>600984.SH</t>
+          <t>000014.SZ</t>
         </is>
       </c>
       <c r="C74" s="29">
@@ -2804,7 +2804,7 @@
       </c>
       <c r="F74" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-42100万元左右;上年同期业绩:净利润-22374.65万元,基本每股收益-0.1780元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润5100万元至5600万元;下降幅度为88.38%至87.25%,基本每股收益0.2107元至0.2314元;上年同期业绩:净利润43907万元,基本每股收益1.8140元;</t>
         </is>
       </c>
       <c r="G74" s="33">
@@ -2815,7 +2815,7 @@
     <row r="75" ht="14" customHeight="1">
       <c r="B75" s="34" t="inlineStr">
         <is>
-          <t>000925.SZ</t>
+          <t>600984.SH</t>
         </is>
       </c>
       <c r="C75" s="29">
@@ -2832,7 +2832,7 @@
       </c>
       <c r="F75" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-9000万元至-6300万元;下降幅度为130%至61%,基本每股收益-0.16元至-0.11元;上年同期业绩:净利润-3914.12万元,基本每股收益-0.07元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-42100万元左右;上年同期业绩:净利润-22374.65万元,基本每股收益-0.1780元;</t>
         </is>
       </c>
       <c r="G75" s="33">
@@ -2843,7 +2843,7 @@
     <row r="76" ht="14" customHeight="1">
       <c r="B76" s="34" t="inlineStr">
         <is>
-          <t>600111.SH</t>
+          <t>000925.SZ</t>
         </is>
       </c>
       <c r="C76" s="29">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="F76" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润3700万元至5400万元;下降幅度为96.50%至94.89%;上年同期业绩:净利润105598.57万元,基本每股收益0.2921元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-9000万元至-6300万元;下降幅度为130%至61%,基本每股收益-0.16元至-0.11元;上年同期业绩:净利润-3914.12万元,基本每股收益-0.07元;</t>
         </is>
       </c>
       <c r="G76" s="33">
@@ -2871,7 +2871,7 @@
     <row r="77" ht="14" customHeight="1">
       <c r="B77" s="34" t="inlineStr">
         <is>
-          <t>003032.SZ</t>
+          <t>600111.SH</t>
         </is>
       </c>
       <c r="C77" s="29">
@@ -2888,7 +2888,7 @@
       </c>
       <c r="F77" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-4000万元至-3000万元;下降幅度为151.89%至138.92%,基本每股收益-0.10元至-0.08元;上年同期业绩:净利润7708.65万元,基本每股收益0.19元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润3700万元至5400万元;下降幅度为96.50%至94.89%;上年同期业绩:净利润105598.57万元,基本每股收益0.2921元;</t>
         </is>
       </c>
       <c r="G77" s="33">
@@ -2899,7 +2899,7 @@
     <row r="78" ht="14" customHeight="1">
       <c r="B78" s="34" t="inlineStr">
         <is>
-          <t>600307.SH</t>
+          <t>003032.SZ</t>
         </is>
       </c>
       <c r="C78" s="29">
@@ -2916,7 +2916,7 @@
       </c>
       <c r="F78" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-97200万元左右;上年同期业绩:净利润-39528.7万元,基本每股收益-0.0631元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-4000万元至-3000万元;下降幅度为151.89%至138.92%,基本每股收益-0.10元至-0.08元;上年同期业绩:净利润7708.65万元,基本每股收益0.19元;</t>
         </is>
       </c>
       <c r="G78" s="33">
@@ -2927,7 +2927,7 @@
     <row r="79" ht="14" customHeight="1">
       <c r="B79" s="34" t="inlineStr">
         <is>
-          <t>600392.SH</t>
+          <t>600307.SH</t>
         </is>
       </c>
       <c r="C79" s="29">
@@ -2944,7 +2944,7 @@
       </c>
       <c r="F79" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-7200万元至-4800万元;上年同期业绩:净利润8397.65万元,基本每股收益0.0479元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-97200万元左右;上年同期业绩:净利润-39528.7万元,基本每股收益-0.0631元;</t>
         </is>
       </c>
       <c r="G79" s="33">
@@ -2955,7 +2955,7 @@
     <row r="80" ht="14" customHeight="1">
       <c r="B80" s="34" t="inlineStr">
         <is>
-          <t>000553.SZ</t>
+          <t>600392.SH</t>
         </is>
       </c>
       <c r="C80" s="29">
@@ -2972,7 +2972,7 @@
       </c>
       <c r="F80" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-99200万元至-56600万元,基本每股收益-0.4259元至-0.2430元;上年同期业绩:净利润-24200万元,基本每股收益-0.1039元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-7200万元至-4800万元;上年同期业绩:净利润8397.65万元,基本每股收益0.0479元;</t>
         </is>
       </c>
       <c r="G80" s="33">
@@ -2983,7 +2983,7 @@
     <row r="81" ht="14" customHeight="1">
       <c r="B81" s="34" t="inlineStr">
         <is>
-          <t>600022.SH</t>
+          <t>000553.SZ</t>
         </is>
       </c>
       <c r="C81" s="29">
@@ -3000,7 +3000,7 @@
       </c>
       <c r="F81" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-104000万元至-89000万元;下降幅度为316.58%至256.5%;上年同期业绩:净利润-24965万元,基本每股收益-0.0233元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-99200万元至-56600万元,基本每股收益-0.4259元至-0.2430元;上年同期业绩:净利润-24200万元,基本每股收益-0.1039元;</t>
         </is>
       </c>
       <c r="G81" s="33">
@@ -3011,7 +3011,7 @@
     <row r="82" ht="14" customHeight="1">
       <c r="B82" s="34" t="inlineStr">
         <is>
-          <t>002689.SZ</t>
+          <t>600022.SH</t>
         </is>
       </c>
       <c r="C82" s="29">
@@ -3028,7 +3028,7 @@
       </c>
       <c r="F82" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-1063.96万元至-563.96万元,基本每股收益-0.0102元至-0.0054元;上年同期业绩:净利润353.55万元,基本每股收益0.0034元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-104000万元至-89000万元;下降幅度为316.58%至256.5%;上年同期业绩:净利润-24965万元,基本每股收益-0.0233元;</t>
         </is>
       </c>
       <c r="G82" s="33">
@@ -3039,7 +3039,7 @@
     <row r="83" ht="14" customHeight="1">
       <c r="B83" s="34" t="inlineStr">
         <is>
-          <t>603330.SH</t>
+          <t>002689.SZ</t>
         </is>
       </c>
       <c r="C83" s="29">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="F83" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-420万元至-280万元;下降幅度为476.02%至350.68%;上年同期业绩:净利润111.69万元,基本每股收益0.003元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-1063.96万元至-563.96万元,基本每股收益-0.0102元至-0.0054元;上年同期业绩:净利润353.55万元,基本每股收益0.0034元;</t>
         </is>
       </c>
       <c r="G83" s="33">
@@ -3067,7 +3067,7 @@
     <row r="84" ht="14" customHeight="1">
       <c r="B84" s="34" t="inlineStr">
         <is>
-          <t>600231.SH</t>
+          <t>603330.SH</t>
         </is>
       </c>
       <c r="C84" s="29">
@@ -3084,7 +3084,7 @@
       </c>
       <c r="F84" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-52200.00万元左右;上年同期业绩:净利润-9965.0000万元,基本每股收益-0.03元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-420万元至-280万元;下降幅度为476.02%至350.68%;上年同期业绩:净利润111.69万元,基本每股收益0.003元;</t>
         </is>
       </c>
       <c r="G84" s="33">
@@ -3095,7 +3095,7 @@
     <row r="85" ht="14" customHeight="1">
       <c r="B85" s="34" t="inlineStr">
         <is>
-          <t>603900.SH</t>
+          <t>600231.SH</t>
         </is>
       </c>
       <c r="C85" s="29">
@@ -3112,7 +3112,7 @@
       </c>
       <c r="F85" s="35" t="inlineStr">
         <is>
-          <t>预计2024-01-01到2024-06-30业绩：净利润-4300.00万元至-3000.00万元;上年同期业绩:净利润603.22万元,基本每股收益0.0177元;</t>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-52200.00万元左右;上年同期业绩:净利润-9965.0000万元,基本每股收益-0.03元;</t>
         </is>
       </c>
       <c r="G85" s="33">
@@ -3120,7 +3120,34 @@
         <v/>
       </c>
     </row>
-    <row r="86" ht="14" customHeight="1"/>
+    <row r="86" ht="14" customHeight="1">
+      <c r="B86" s="34" t="inlineStr">
+        <is>
+          <t>603900.SH</t>
+        </is>
+      </c>
+      <c r="C86" s="29">
+        <f t="array" ref="C86">[1]!s_info_name(B86)</f>
+        <v/>
+      </c>
+      <c r="D86" s="39">
+        <f t="array" ref="D86">[1]!s_info_industry_sw_2021(B86,"",1)</f>
+        <v/>
+      </c>
+      <c r="E86" s="31">
+        <f t="array" ref="E86">IF([1]!s_info_industry_sw_2021(B86,"",2)="消费电子",分工!$E$4,VLOOKUP(D86,分工!$B$2:'分工'!$C$32,2,0))</f>
+        <v/>
+      </c>
+      <c r="F86" s="35" t="inlineStr">
+        <is>
+          <t>预计2024-01-01到2024-06-30业绩：净利润-4300.00万元至-3000.00万元;上年同期业绩:净利润603.22万元,基本每股收益0.0177元;</t>
+        </is>
+      </c>
+      <c r="G86" s="33">
+        <f>IFERROR(VLOOKUP(C86,重点公司!$C$2:$E$800,2,FALSE),0)</f>
+        <v/>
+      </c>
+    </row>
     <row r="87" ht="14" customHeight="1"/>
     <row r="88" ht="14" customHeight="1"/>
     <row r="89" ht="14" customHeight="1"/>
